--- a/Curso DDD/PlanoDeAula.xlsx
+++ b/Curso DDD/PlanoDeAula.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Aula</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Building Blocks:Entities, Services, Value Objects, e Factories</t>
+  </si>
+  <si>
+    <t>Não cheguei em fábricas e agregrações</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,6 +488,9 @@
       </c>
       <c r="B3" t="s">
         <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Curso DDD/PlanoDeAula.xlsx
+++ b/Curso DDD/PlanoDeAula.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Aula DDD" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,10 @@
     <t>Building Blocks:Layered Architecture, Repositories</t>
   </si>
   <si>
-    <t>Building Blocks:Entities, Services, Value Objects, e Factories</t>
-  </si>
-  <si>
     <t>Não cheguei em fábricas e agregrações</t>
+  </si>
+  <si>
+    <t>Building Blocks:Entities, Services, Value Objects, Agregates e Factories</t>
   </si>
 </sst>
 </file>
@@ -449,18 +449,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="79.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -482,18 +480,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,7 +499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -509,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -517,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -525,7 +523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -533,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -541,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -563,10 +561,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Curso DDD/PlanoDeAula.xlsx
+++ b/Curso DDD/PlanoDeAula.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Aula DDD" sheetId="1" r:id="rId1"/>
     <sheet name="Plano de Aula Fundamentos em Ar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,9 +74,6 @@
     <t>Bulding Blocks: Repositories, Smart UI</t>
   </si>
   <si>
-    <t>Design Estratégico: Bounded Context, Context Map</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design Estratégico: Continuous Integration </t>
   </si>
   <si>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>Building Blocks:Entities, Services, Value Objects, Agregates e Factories</t>
+  </si>
+  <si>
+    <t>Design Estratégico: Domain Event,Bounded Context, Context Map</t>
   </si>
 </sst>
 </file>
@@ -449,16 +450,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,29 +480,29 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -507,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,36 +518,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +567,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Curso DDD/PlanoDeAula.xlsx
+++ b/Curso DDD/PlanoDeAula.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Aula DDD" sheetId="1" r:id="rId1"/>
     <sheet name="Plano de Aula Fundamentos em Ar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Aula</t>
   </si>
@@ -83,15 +82,7 @@
     <t>Design Estratégico: Open Host Service/Published Language,Separate Ways,Anticorruption Layer</t>
   </si>
   <si>
-    <t>Explicação do conteúdo geral do curso
-Detalhando Ubiquitous Language
-Exercício em grupo para gerar um modelo inicial da solução do problema</t>
-  </si>
-  <si>
     <t>Building Blocks:Layered Architecture, Repositories</t>
-  </si>
-  <si>
-    <t>Não cheguei em fábricas e agregrações</t>
   </si>
   <si>
     <t>Building Blocks:Entities, Services, Value Objects, Agregates e Factories</t>
@@ -451,7 +442,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,19 +470,14 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
